--- a/score_garantia_dashboard.xlsx
+++ b/score_garantia_dashboard.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.61485812023858</v>
+        <v>94.78927903523508</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>94.61485812023858</v>
+        <v>94.78927903523508</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.10004146676106</v>
+        <v>92.68141738186344</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>93.10004146676106</v>
+        <v>92.68141738186344</v>
       </c>
     </row>
     <row r="4">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.08471892319873</v>
+        <v>62.78701504354711</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>61.08471892319873</v>
+        <v>62.78701504354711</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.95519348268837</v>
+        <v>45.01018329938898</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41.95519348268837</v>
+        <v>45.01018329938898</v>
       </c>
     </row>
   </sheetData>
